--- a/xtt_demo/09-01_R.xlsx
+++ b/xtt_demo/09-01_R.xlsx
@@ -624,7 +624,6 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="D2"/>
       <c r="E2" s="2" t="s"/>
     </row>
     <row r="3">

--- a/xtt_demo/09-01_R.xlsx
+++ b/xtt_demo/09-01_R.xlsx
@@ -897,484 +897,475 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
       <c r="B8" s="19" t="s"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>18</v>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="20">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="G8" s="20">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
       <c r="H8" s="20">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
       <c r="I8" s="20">
-        <v>9927.07</v>
+        <v>7717.20</v>
       </c>
       <c r="J8" s="20">
-        <v>6836.72</v>
+        <v>3031.38</v>
       </c>
       <c r="K8" s="20">
-        <v>7795.09</v>
+        <v>445.22</v>
       </c>
       <c r="L8" s="20">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
       <c r="M8" s="20">
-        <v>7742.85</v>
+        <v>3683.27</v>
       </c>
       <c r="N8" s="20">
-        <v>7630.05</v>
+        <v>4604.00</v>
       </c>
       <c r="O8" s="20">
-        <v>6014.38</v>
+        <v>5525.85</v>
       </c>
       <c r="P8" s="20">
-        <v>5746.69</v>
+        <v>2159.71</v>
       </c>
       <c r="Q8" s="20">
-        <v>1997.34</v>
+        <v>2260.94</v>
       </c>
       <c r="R8" s="20">
-        <v>471.62</v>
+        <v>2490.30</v>
       </c>
       <c r="S8" s="20">
-        <v>6510.54</v>
+        <v>6388.81</v>
       </c>
       <c r="T8" s="20">
-        <v>6001.36</v>
+        <v>5476.81</v>
       </c>
       <c r="U8" s="20">
-        <v>7509.60</v>
+        <v>406.18</v>
       </c>
       <c r="V8" s="20">
-        <v>9950.90</v>
+        <v>689.66</v>
       </c>
       <c r="W8" s="20">
-        <v>7487.59</v>
+        <v>518.60</v>
       </c>
       <c r="X8" s="20">
-        <v>153.90</v>
+        <v>5451.87</v>
       </c>
       <c r="Y8" s="20">
-        <v>7473.27</v>
+        <v>4061.85</v>
       </c>
       <c r="Z8" s="20">
-        <v>8972.09</v>
+        <v>4573.55</v>
       </c>
       <c r="AA8" s="20">
-        <v>1796.79</v>
+        <v>5436.00</v>
       </c>
       <c r="AB8" s="20">
-        <v>214.52</v>
+        <v>1196.35</v>
       </c>
       <c r="AC8" s="20">
-        <v>8481.91</v>
+        <v>522.46</v>
       </c>
       <c r="AD8" s="20">
-        <v>4164.85</v>
+        <v>7686.95</v>
       </c>
       <c r="AE8" s="20">
-        <v>4263.78</v>
+        <v>2727.98</v>
       </c>
       <c r="AF8" s="20">
-        <v>847.44</v>
+        <v>978.18</v>
       </c>
       <c r="AG8" s="20">
-        <v>1515.22</v>
+        <v>295.55</v>
       </c>
       <c r="AH8" s="20">
-        <v>6220.04</v>
+        <v>71.12</v>
       </c>
       <c r="AI8" s="20">
-        <v>6482.36</v>
+        <v>8878.56</v>
       </c>
       <c r="AJ8" s="20">
-        <v>8867.23</v>
+        <v>2455.26</v>
       </c>
       <c r="AK8" s="20">
-        <v>1507.10</v>
+        <v>1543.67</v>
       </c>
       <c r="AL8" s="20">
-        <v>6827.80</v>
+        <v>6686.29</v>
       </c>
       <c r="AM8" s="20">
-        <v>5380.78</v>
+        <v>2989.49</v>
       </c>
       <c r="AN8" s="20">
-        <v>9839.57</v>
+        <v>3153.90</v>
       </c>
       <c r="AO8" s="20">
-        <v>3982.40</v>
+        <v>9291.25</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="19" t="s"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>15</v>
+      <c r="E9" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="20">
-        <v>5640.05</v>
-      </c>
-      <c r="G9" s="20">
-        <v>7028.70</v>
+        <v>5319.80</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3945.94</v>
       </c>
       <c r="H9" s="20">
-        <v>5632.43</v>
-      </c>
-      <c r="I9" s="20">
-        <v>6674.68</v>
+        <v>6810.78</v>
+      </c>
+      <c r="I9" s="22">
+        <v>3751.68</v>
       </c>
       <c r="J9" s="20">
-        <v>1032.92</v>
-      </c>
-      <c r="K9" s="20">
-        <v>4263.23</v>
+        <v>1976.49</v>
+      </c>
+      <c r="K9" s="22">
+        <v>9851.72</v>
       </c>
       <c r="L9" s="20">
-        <v>5127.30</v>
-      </c>
-      <c r="M9" s="20">
-        <v>1396.14</v>
+        <v>7149.19</v>
+      </c>
+      <c r="M9" s="22">
+        <v>4226.41</v>
       </c>
       <c r="N9" s="20">
-        <v>8917.23</v>
-      </c>
-      <c r="O9" s="20">
-        <v>5637.84</v>
+        <v>8194.60</v>
+      </c>
+      <c r="O9" s="22">
+        <v>4285.88</v>
       </c>
       <c r="P9" s="20">
-        <v>7392.79</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>579.35</v>
+        <v>4168.96</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>6181.78</v>
       </c>
       <c r="R9" s="20">
-        <v>3233.97</v>
-      </c>
-      <c r="S9" s="20">
-        <v>5941.24</v>
+        <v>6419.92</v>
+      </c>
+      <c r="S9" s="22">
+        <v>1093.71</v>
       </c>
       <c r="T9" s="20">
-        <v>607.62</v>
-      </c>
-      <c r="U9" s="20">
-        <v>2081.74</v>
+        <v>4047.18</v>
+      </c>
+      <c r="U9" s="22">
+        <v>971.33</v>
       </c>
       <c r="V9" s="20">
-        <v>3127.33</v>
-      </c>
-      <c r="W9" s="20">
-        <v>5015.36</v>
+        <v>5008.78</v>
+      </c>
+      <c r="W9" s="22">
+        <v>7833.37</v>
       </c>
       <c r="X9" s="20">
-        <v>8315.38</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>1204.42</v>
+        <v>9582.60</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>1568.08</v>
       </c>
       <c r="Z9" s="20">
-        <v>718.17</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>8431.03</v>
+        <v>840.79</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>8105.44</v>
       </c>
       <c r="AB9" s="20">
-        <v>7859.49</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>9311.26</v>
+        <v>5503.59</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>6401.60</v>
       </c>
       <c r="AD9" s="20">
-        <v>2710.87</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>3051.12</v>
+        <v>1805.33</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>1863.13</v>
       </c>
       <c r="AF9" s="20">
-        <v>9095.66</v>
-      </c>
-      <c r="AG9" s="20">
-        <v>5051.27</v>
+        <v>1958.04</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>3420.09</v>
       </c>
       <c r="AH9" s="20">
-        <v>9715.92</v>
-      </c>
-      <c r="AI9" s="20">
-        <v>4326.76</v>
+        <v>1751.07</v>
+      </c>
+      <c r="AI9" s="22">
+        <v>8027.96</v>
       </c>
       <c r="AJ9" s="20">
-        <v>8443.44</v>
-      </c>
-      <c r="AK9" s="20">
-        <v>9837.56</v>
+        <v>1006.38</v>
+      </c>
+      <c r="AK9" s="22">
+        <v>6191.29</v>
       </c>
       <c r="AL9" s="20">
-        <v>716.00</v>
-      </c>
-      <c r="AM9" s="20">
-        <v>5995.02</v>
+        <v>5946.87</v>
+      </c>
+      <c r="AM9" s="22">
+        <v>5215.51</v>
       </c>
       <c r="AN9" s="20">
-        <v>2326.60</v>
-      </c>
-      <c r="AO9" s="20">
-        <v>9187.75</v>
+        <v>3048.93</v>
+      </c>
+      <c r="AO9" s="22">
+        <v>1900.44</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
       <c r="B10" s="19" t="s"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20">
-        <v>130.72</v>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4360.52</v>
       </c>
       <c r="G10" s="20">
-        <v>9703.13</v>
-      </c>
-      <c r="H10" s="20">
-        <v>3942.34</v>
+        <v>2019.88</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3968.83</v>
       </c>
       <c r="I10" s="20">
-        <v>5025.71</v>
-      </c>
-      <c r="J10" s="20">
-        <v>7816.61</v>
+        <v>7908.45</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1519.96</v>
       </c>
       <c r="K10" s="20">
-        <v>9332.31</v>
-      </c>
-      <c r="L10" s="20">
-        <v>7608.64</v>
+        <v>256.61</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3345.29</v>
       </c>
       <c r="M10" s="20">
-        <v>4525.86</v>
-      </c>
-      <c r="N10" s="20">
-        <v>5515.98</v>
+        <v>1590.73</v>
+      </c>
+      <c r="N10" s="21">
+        <v>6616.28</v>
       </c>
       <c r="O10" s="20">
-        <v>9165.66</v>
-      </c>
-      <c r="P10" s="20">
-        <v>5203.05</v>
+        <v>6230.11</v>
+      </c>
+      <c r="P10" s="21">
+        <v>2450.52</v>
       </c>
       <c r="Q10" s="20">
-        <v>1096.29</v>
-      </c>
-      <c r="R10" s="20">
-        <v>3527.23</v>
+        <v>1445.41</v>
+      </c>
+      <c r="R10" s="21">
+        <v>9218.16</v>
       </c>
       <c r="S10" s="20">
-        <v>8232.21</v>
-      </c>
-      <c r="T10" s="20">
-        <v>4816.02</v>
+        <v>3546.34</v>
+      </c>
+      <c r="T10" s="21">
+        <v>5457.95</v>
       </c>
       <c r="U10" s="20">
-        <v>98.96</v>
-      </c>
-      <c r="V10" s="20">
-        <v>4419.65</v>
+        <v>4288.14</v>
+      </c>
+      <c r="V10" s="21">
+        <v>1413.83</v>
       </c>
       <c r="W10" s="20">
-        <v>2512.31</v>
-      </c>
-      <c r="X10" s="20">
-        <v>3727.98</v>
+        <v>2935.33</v>
+      </c>
+      <c r="X10" s="21">
+        <v>1561.86</v>
       </c>
       <c r="Y10" s="20">
-        <v>3097.35</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>3432.51</v>
+        <v>8070.23</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>5606.64</v>
       </c>
       <c r="AA10" s="20">
-        <v>797.99</v>
-      </c>
-      <c r="AB10" s="20">
-        <v>8274.99</v>
+        <v>6501.99</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>8239.11</v>
       </c>
       <c r="AC10" s="20">
-        <v>5168.66</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>2100.67</v>
+        <v>6687.27</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>1050.68</v>
       </c>
       <c r="AE10" s="20">
-        <v>2757.55</v>
-      </c>
-      <c r="AF10" s="20">
-        <v>914.14</v>
+        <v>6730.82</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>733.04</v>
       </c>
       <c r="AG10" s="20">
-        <v>5988.57</v>
-      </c>
-      <c r="AH10" s="20">
-        <v>9871.45</v>
+        <v>502.59</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>2943.88</v>
       </c>
       <c r="AI10" s="20">
-        <v>9668.44</v>
-      </c>
-      <c r="AJ10" s="20">
-        <v>5648.32</v>
+        <v>212.80</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>5736.85</v>
       </c>
       <c r="AK10" s="20">
-        <v>840.53</v>
-      </c>
-      <c r="AL10" s="20">
-        <v>8066.63</v>
+        <v>4149.62</v>
+      </c>
+      <c r="AL10" s="21">
+        <v>8539.78</v>
       </c>
       <c r="AM10" s="20">
-        <v>7781.93</v>
-      </c>
-      <c r="AN10" s="20">
-        <v>7033.08</v>
+        <v>354.08</v>
+      </c>
+      <c r="AN10" s="21">
+        <v>2998.55</v>
       </c>
       <c r="AO10" s="20">
-        <v>6048.99</v>
+        <v>69.43</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
       <c r="B11" s="19" t="s"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="20">
-        <v>8197.26</v>
+        <v>196.50</v>
       </c>
       <c r="G11" s="20">
-        <v>2705.55</v>
+        <v>6381.04</v>
       </c>
       <c r="H11" s="20">
-        <v>4583.91</v>
+        <v>6323.48</v>
       </c>
       <c r="I11" s="20">
-        <v>7769.85</v>
+        <v>5844.18</v>
       </c>
       <c r="J11" s="20">
-        <v>1797.01</v>
+        <v>9354.17</v>
       </c>
       <c r="K11" s="20">
-        <v>4737.43</v>
+        <v>6228.92</v>
       </c>
       <c r="L11" s="20">
-        <v>4274.06</v>
+        <v>308.41</v>
       </c>
       <c r="M11" s="20">
-        <v>7643.44</v>
+        <v>1424.67</v>
       </c>
       <c r="N11" s="20">
-        <v>3602.14</v>
+        <v>6309.25</v>
       </c>
       <c r="O11" s="20">
-        <v>192.68</v>
+        <v>9286.03</v>
       </c>
       <c r="P11" s="20">
-        <v>6355.84</v>
+        <v>2774.49</v>
       </c>
       <c r="Q11" s="20">
-        <v>4662.99</v>
+        <v>8028.99</v>
       </c>
       <c r="R11" s="20">
-        <v>7978.19</v>
+        <v>7638.56</v>
       </c>
       <c r="S11" s="20">
-        <v>4347.76</v>
+        <v>510.96</v>
       </c>
       <c r="T11" s="20">
-        <v>5709.60</v>
+        <v>1625.80</v>
       </c>
       <c r="U11" s="20">
-        <v>5453.13</v>
+        <v>7902.67</v>
       </c>
       <c r="V11" s="20">
-        <v>1940.48</v>
+        <v>1882.74</v>
       </c>
       <c r="W11" s="20">
-        <v>6585.06</v>
+        <v>1516.84</v>
       </c>
       <c r="X11" s="20">
-        <v>2773.88</v>
+        <v>9091.83</v>
       </c>
       <c r="Y11" s="20">
-        <v>9242.59</v>
+        <v>4523.30</v>
       </c>
       <c r="Z11" s="20">
-        <v>8329.62</v>
+        <v>7121.26</v>
       </c>
       <c r="AA11" s="20">
-        <v>8018.85</v>
+        <v>4156.28</v>
       </c>
       <c r="AB11" s="20">
-        <v>3269.41</v>
+        <v>5404.98</v>
       </c>
       <c r="AC11" s="20">
-        <v>7259.39</v>
+        <v>2469.62</v>
       </c>
       <c r="AD11" s="20">
-        <v>7857.30</v>
+        <v>5598.92</v>
       </c>
       <c r="AE11" s="20">
-        <v>81.95</v>
+        <v>3059.11</v>
       </c>
       <c r="AF11" s="20">
-        <v>4350.75</v>
+        <v>5544.26</v>
       </c>
       <c r="AG11" s="20">
-        <v>7880.76</v>
+        <v>2571.89</v>
       </c>
       <c r="AH11" s="20">
-        <v>4023.79</v>
+        <v>4444.04</v>
       </c>
       <c r="AI11" s="20">
-        <v>9387.05</v>
+        <v>7278.26</v>
       </c>
       <c r="AJ11" s="20">
-        <v>35.42</v>
+        <v>8482.85</v>
       </c>
       <c r="AK11" s="20">
-        <v>8157.72</v>
+        <v>8359.24</v>
       </c>
       <c r="AL11" s="20">
-        <v>2396.53</v>
+        <v>911.90</v>
       </c>
       <c r="AM11" s="20">
-        <v>6166.13</v>
+        <v>6825.27</v>
       </c>
       <c r="AN11" s="20">
-        <v>6328.76</v>
+        <v>1701.94</v>
       </c>
       <c r="AO11" s="20">
-        <v>7792.24</v>
+        <v>1094.11</v>
       </c>
     </row>
     <row r="12">
@@ -1387,354 +1378,348 @@
         <v>15</v>
       </c>
       <c r="F12" s="20">
-        <v>167.70</v>
+        <v>1679.86</v>
       </c>
       <c r="G12" s="20">
-        <v>9642.07</v>
+        <v>6866.06</v>
       </c>
       <c r="H12" s="20">
-        <v>44.43</v>
+        <v>8514.74</v>
       </c>
       <c r="I12" s="20">
-        <v>8803.46</v>
+        <v>6922.20</v>
       </c>
       <c r="J12" s="20">
-        <v>9148.41</v>
+        <v>8636.84</v>
       </c>
       <c r="K12" s="20">
-        <v>469.48</v>
+        <v>3287.89</v>
       </c>
       <c r="L12" s="20">
-        <v>6420.19</v>
+        <v>3382.06</v>
       </c>
       <c r="M12" s="20">
-        <v>4499.32</v>
+        <v>6498.82</v>
       </c>
       <c r="N12" s="20">
-        <v>3238.24</v>
+        <v>940.20</v>
       </c>
       <c r="O12" s="20">
-        <v>9527.55</v>
+        <v>1683.90</v>
       </c>
       <c r="P12" s="20">
-        <v>6062.59</v>
+        <v>216.42</v>
       </c>
       <c r="Q12" s="20">
-        <v>1321.93</v>
+        <v>5069.12</v>
       </c>
       <c r="R12" s="20">
-        <v>8324.77</v>
+        <v>5147.76</v>
       </c>
       <c r="S12" s="20">
-        <v>6520.10</v>
+        <v>6180.36</v>
       </c>
       <c r="T12" s="20">
-        <v>6685.74</v>
+        <v>6680.86</v>
       </c>
       <c r="U12" s="20">
-        <v>8786.35</v>
+        <v>599.85</v>
       </c>
       <c r="V12" s="20">
-        <v>574.36</v>
+        <v>3237.63</v>
       </c>
       <c r="W12" s="20">
-        <v>3183.14</v>
+        <v>3551.16</v>
       </c>
       <c r="X12" s="20">
-        <v>4139.90</v>
+        <v>7991.29</v>
       </c>
       <c r="Y12" s="20">
-        <v>9689.18</v>
+        <v>6542.59</v>
       </c>
       <c r="Z12" s="20">
-        <v>6545.61</v>
+        <v>9442.39</v>
       </c>
       <c r="AA12" s="20">
-        <v>6079.85</v>
+        <v>7531.51</v>
       </c>
       <c r="AB12" s="20">
-        <v>5901.78</v>
+        <v>8704.99</v>
       </c>
       <c r="AC12" s="20">
-        <v>7622.43</v>
+        <v>1779.31</v>
       </c>
       <c r="AD12" s="20">
-        <v>8997.75</v>
+        <v>96.99</v>
       </c>
       <c r="AE12" s="20">
-        <v>9505.53</v>
+        <v>5389.07</v>
       </c>
       <c r="AF12" s="20">
-        <v>2009.23</v>
+        <v>6050.15</v>
       </c>
       <c r="AG12" s="20">
-        <v>1375.18</v>
+        <v>5204.36</v>
       </c>
       <c r="AH12" s="20">
-        <v>4071.01</v>
+        <v>6133.92</v>
       </c>
       <c r="AI12" s="20">
-        <v>820.23</v>
+        <v>2782.83</v>
       </c>
       <c r="AJ12" s="20">
-        <v>3377.17</v>
+        <v>2627.58</v>
       </c>
       <c r="AK12" s="20">
-        <v>7430.76</v>
+        <v>247.82</v>
       </c>
       <c r="AL12" s="20">
-        <v>4837.66</v>
+        <v>7572.17</v>
       </c>
       <c r="AM12" s="20">
-        <v>7359.57</v>
+        <v>1915.44</v>
       </c>
       <c r="AN12" s="20">
-        <v>9833.14</v>
+        <v>6187.87</v>
       </c>
       <c r="AO12" s="20">
-        <v>2730.43</v>
+        <v>61.48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
       <c r="B13" s="19" t="s"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="20">
-        <v>6860.96</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2940.38</v>
+        <v>1833.46</v>
+      </c>
+      <c r="G13" s="22">
+        <v>6201.19</v>
       </c>
       <c r="H13" s="20">
-        <v>6168.17</v>
-      </c>
-      <c r="I13" s="20">
-        <v>325.84</v>
+        <v>7535.00</v>
+      </c>
+      <c r="I13" s="22">
+        <v>9440.18</v>
       </c>
       <c r="J13" s="20">
-        <v>1831.38</v>
-      </c>
-      <c r="K13" s="20">
-        <v>2280.71</v>
+        <v>3721.83</v>
+      </c>
+      <c r="K13" s="22">
+        <v>7879.74</v>
       </c>
       <c r="L13" s="20">
-        <v>4946.27</v>
-      </c>
-      <c r="M13" s="20">
-        <v>2384.97</v>
+        <v>7664.25</v>
+      </c>
+      <c r="M13" s="22">
+        <v>8711.87</v>
       </c>
       <c r="N13" s="20">
-        <v>679.16</v>
-      </c>
-      <c r="O13" s="20">
-        <v>3098.41</v>
+        <v>9443.18</v>
+      </c>
+      <c r="O13" s="22">
+        <v>9783.95</v>
       </c>
       <c r="P13" s="20">
-        <v>7837.09</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>7654.60</v>
+        <v>8695.05</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>880.71</v>
       </c>
       <c r="R13" s="20">
-        <v>4767.21</v>
-      </c>
-      <c r="S13" s="20">
-        <v>9548.18</v>
+        <v>6902.20</v>
+      </c>
+      <c r="S13" s="22">
+        <v>5165.82</v>
       </c>
       <c r="T13" s="20">
-        <v>3723.75</v>
-      </c>
-      <c r="U13" s="20">
-        <v>6412.18</v>
+        <v>770.72</v>
+      </c>
+      <c r="U13" s="22">
+        <v>3816.54</v>
       </c>
       <c r="V13" s="20">
-        <v>8108.83</v>
-      </c>
-      <c r="W13" s="20">
-        <v>548.58</v>
+        <v>9263.51</v>
+      </c>
+      <c r="W13" s="22">
+        <v>3490.91</v>
       </c>
       <c r="X13" s="20">
-        <v>4046.71</v>
-      </c>
-      <c r="Y13" s="20">
-        <v>9325.58</v>
+        <v>9015.94</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>3709.54</v>
       </c>
       <c r="Z13" s="20">
-        <v>3585.65</v>
-      </c>
-      <c r="AA13" s="20">
-        <v>3134.68</v>
+        <v>8866.75</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>2585.43</v>
       </c>
       <c r="AB13" s="20">
-        <v>4539.75</v>
-      </c>
-      <c r="AC13" s="20">
-        <v>3329.97</v>
+        <v>7864.39</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>6622.07</v>
       </c>
       <c r="AD13" s="20">
-        <v>3707.10</v>
-      </c>
-      <c r="AE13" s="20">
-        <v>8417.64</v>
+        <v>5635.89</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>737.18</v>
       </c>
       <c r="AF13" s="20">
-        <v>4011.77</v>
-      </c>
-      <c r="AG13" s="20">
-        <v>8612.37</v>
+        <v>3238.85</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>3002.91</v>
       </c>
       <c r="AH13" s="20">
-        <v>4740.70</v>
-      </c>
-      <c r="AI13" s="20">
-        <v>7374.75</v>
+        <v>517.62</v>
+      </c>
+      <c r="AI13" s="22">
+        <v>2536.31</v>
       </c>
       <c r="AJ13" s="20">
-        <v>7583.95</v>
-      </c>
-      <c r="AK13" s="20">
-        <v>5178.53</v>
+        <v>4170.82</v>
+      </c>
+      <c r="AK13" s="22">
+        <v>4171.44</v>
       </c>
       <c r="AL13" s="20">
-        <v>4548.82</v>
-      </c>
-      <c r="AM13" s="20">
-        <v>472.43</v>
+        <v>4598.00</v>
+      </c>
+      <c r="AM13" s="22">
+        <v>735.95</v>
       </c>
       <c r="AN13" s="20">
-        <v>2317.81</v>
-      </c>
-      <c r="AO13" s="20">
-        <v>8152.76</v>
+        <v>4699.40</v>
+      </c>
+      <c r="AO13" s="22">
+        <v>2024.76</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
       <c r="B14" s="19" t="s"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="20">
-        <v>8429.76</v>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1021.71</v>
       </c>
       <c r="G14" s="20">
-        <v>5857.30</v>
-      </c>
-      <c r="H14" s="20">
-        <v>989.56</v>
+        <v>6652.11</v>
+      </c>
+      <c r="H14" s="21">
+        <v>5560.23</v>
       </c>
       <c r="I14" s="20">
-        <v>5371.23</v>
-      </c>
-      <c r="J14" s="20">
-        <v>9757.91</v>
+        <v>5886.63</v>
+      </c>
+      <c r="J14" s="21">
+        <v>6083.80</v>
       </c>
       <c r="K14" s="20">
-        <v>4527.59</v>
-      </c>
-      <c r="L14" s="20">
-        <v>9939.77</v>
+        <v>3624.64</v>
+      </c>
+      <c r="L14" s="21">
+        <v>6556.42</v>
       </c>
       <c r="M14" s="20">
-        <v>9486.80</v>
-      </c>
-      <c r="N14" s="20">
-        <v>5682.78</v>
+        <v>6078.95</v>
+      </c>
+      <c r="N14" s="21">
+        <v>6489.03</v>
       </c>
       <c r="O14" s="20">
-        <v>6185.43</v>
-      </c>
-      <c r="P14" s="20">
-        <v>1821.46</v>
+        <v>597.75</v>
+      </c>
+      <c r="P14" s="21">
+        <v>468.55</v>
       </c>
       <c r="Q14" s="20">
-        <v>842.82</v>
-      </c>
-      <c r="R14" s="20">
-        <v>4306.28</v>
+        <v>9831.38</v>
+      </c>
+      <c r="R14" s="21">
+        <v>4465.54</v>
       </c>
       <c r="S14" s="20">
-        <v>5171.36</v>
-      </c>
-      <c r="T14" s="20">
-        <v>6091.34</v>
+        <v>7627.47</v>
+      </c>
+      <c r="T14" s="21">
+        <v>899.33</v>
       </c>
       <c r="U14" s="20">
-        <v>9701.13</v>
-      </c>
-      <c r="V14" s="20">
-        <v>1903.22</v>
+        <v>5586.29</v>
+      </c>
+      <c r="V14" s="21">
+        <v>8929.96</v>
       </c>
       <c r="W14" s="20">
-        <v>8562.21</v>
-      </c>
-      <c r="X14" s="20">
-        <v>9683.74</v>
+        <v>3073.61</v>
+      </c>
+      <c r="X14" s="21">
+        <v>9806.99</v>
       </c>
       <c r="Y14" s="20">
-        <v>9060.72</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>9832.94</v>
+        <v>8076.02</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>848.15</v>
       </c>
       <c r="AA14" s="20">
-        <v>9479.01</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>3041.06</v>
+        <v>6855.56</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>3848.13</v>
       </c>
       <c r="AC14" s="20">
-        <v>7770.65</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>9546.42</v>
+        <v>5718.01</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>2328.27</v>
       </c>
       <c r="AE14" s="20">
-        <v>3292.33</v>
-      </c>
-      <c r="AF14" s="20">
-        <v>8620.42</v>
+        <v>7504.74</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>4652.99</v>
       </c>
       <c r="AG14" s="20">
-        <v>1301.09</v>
-      </c>
-      <c r="AH14" s="20">
-        <v>8609.91</v>
+        <v>6710.99</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>3951.29</v>
       </c>
       <c r="AI14" s="20">
-        <v>3733.56</v>
-      </c>
-      <c r="AJ14" s="20">
-        <v>7459.67</v>
+        <v>3369.97</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>9874.34</v>
       </c>
       <c r="AK14" s="20">
-        <v>3616.27</v>
-      </c>
-      <c r="AL14" s="20">
-        <v>8862.33</v>
+        <v>9035.85</v>
+      </c>
+      <c r="AL14" s="21">
+        <v>8874.69</v>
       </c>
       <c r="AM14" s="20">
-        <v>377.20</v>
-      </c>
-      <c r="AN14" s="20">
-        <v>5251.13</v>
+        <v>7455.23</v>
+      </c>
+      <c r="AN14" s="21">
+        <v>4687.44</v>
       </c>
       <c r="AO14" s="20">
-        <v>2923.55</v>
+        <v>3023.71</v>
       </c>
     </row>
     <row r="15">
@@ -1747,466 +1732,472 @@
         <v>15</v>
       </c>
       <c r="F15" s="20">
-        <v>6699.56</v>
+        <v>1376.25</v>
       </c>
       <c r="G15" s="20">
-        <v>7876.64</v>
+        <v>2373.48</v>
       </c>
       <c r="H15" s="20">
-        <v>8723.73</v>
+        <v>9806.78</v>
       </c>
       <c r="I15" s="20">
-        <v>1001.18</v>
+        <v>3125.07</v>
       </c>
       <c r="J15" s="20">
-        <v>5323.49</v>
+        <v>2653.11</v>
       </c>
       <c r="K15" s="20">
-        <v>5493.60</v>
+        <v>3579.86</v>
       </c>
       <c r="L15" s="20">
-        <v>9522.86</v>
+        <v>5660.49</v>
       </c>
       <c r="M15" s="20">
-        <v>7212.81</v>
+        <v>445.44</v>
       </c>
       <c r="N15" s="20">
-        <v>6750.81</v>
+        <v>725.85</v>
       </c>
       <c r="O15" s="20">
-        <v>8983.95</v>
+        <v>3597.20</v>
       </c>
       <c r="P15" s="20">
-        <v>6910.72</v>
+        <v>3225.86</v>
       </c>
       <c r="Q15" s="20">
-        <v>8484.76</v>
+        <v>4017.85</v>
       </c>
       <c r="R15" s="20">
-        <v>2321.57</v>
+        <v>5596.45</v>
       </c>
       <c r="S15" s="20">
-        <v>2353.60</v>
+        <v>9651.27</v>
       </c>
       <c r="T15" s="20">
-        <v>9091.82</v>
+        <v>1328.17</v>
       </c>
       <c r="U15" s="20">
-        <v>8452.02</v>
+        <v>5192.55</v>
       </c>
       <c r="V15" s="20">
-        <v>3716.79</v>
+        <v>565.16</v>
       </c>
       <c r="W15" s="20">
-        <v>5310.79</v>
+        <v>1391.12</v>
       </c>
       <c r="X15" s="20">
-        <v>1169.56</v>
+        <v>4848.89</v>
       </c>
       <c r="Y15" s="20">
-        <v>109.29</v>
+        <v>2640.09</v>
       </c>
       <c r="Z15" s="20">
-        <v>6929.99</v>
+        <v>7418.40</v>
       </c>
       <c r="AA15" s="20">
-        <v>2719.66</v>
+        <v>7570.90</v>
       </c>
       <c r="AB15" s="20">
-        <v>8511.96</v>
+        <v>869.70</v>
       </c>
       <c r="AC15" s="20">
-        <v>5774.57</v>
+        <v>5356.00</v>
       </c>
       <c r="AD15" s="20">
-        <v>7722.40</v>
+        <v>4862.28</v>
       </c>
       <c r="AE15" s="20">
-        <v>8128.00</v>
+        <v>9156.16</v>
       </c>
       <c r="AF15" s="20">
-        <v>3919.74</v>
+        <v>801.32</v>
       </c>
       <c r="AG15" s="20">
-        <v>7885.41</v>
+        <v>7973.88</v>
       </c>
       <c r="AH15" s="20">
-        <v>3425.78</v>
+        <v>7335.05</v>
       </c>
       <c r="AI15" s="20">
-        <v>1196.42</v>
+        <v>5878.05</v>
       </c>
       <c r="AJ15" s="20">
-        <v>5430.86</v>
+        <v>7870.87</v>
       </c>
       <c r="AK15" s="20">
-        <v>7299.90</v>
+        <v>1810.50</v>
       </c>
       <c r="AL15" s="20">
-        <v>1281.36</v>
+        <v>2629.67</v>
       </c>
       <c r="AM15" s="20">
-        <v>7023.45</v>
+        <v>3473.31</v>
       </c>
       <c r="AN15" s="20">
-        <v>9981.51</v>
+        <v>9753.25</v>
       </c>
       <c r="AO15" s="20">
-        <v>1178.89</v>
+        <v>261.27</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="19" t="s"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>17</v>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="20">
-        <v>8331.17</v>
-      </c>
-      <c r="G16" s="22">
-        <v>5694.72</v>
+        <v>2833.96</v>
+      </c>
+      <c r="G16" s="20">
+        <v>4177.31</v>
       </c>
       <c r="H16" s="20">
-        <v>6183.48</v>
-      </c>
-      <c r="I16" s="22">
-        <v>923.47</v>
+        <v>5936.86</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2862.34</v>
       </c>
       <c r="J16" s="20">
-        <v>3519.86</v>
-      </c>
-      <c r="K16" s="22">
-        <v>6230.25</v>
+        <v>2843.13</v>
+      </c>
+      <c r="K16" s="20">
+        <v>7151.03</v>
       </c>
       <c r="L16" s="20">
-        <v>3499.86</v>
-      </c>
-      <c r="M16" s="22">
-        <v>9503.59</v>
+        <v>9836.03</v>
+      </c>
+      <c r="M16" s="20">
+        <v>5649.76</v>
       </c>
       <c r="N16" s="20">
-        <v>5086.31</v>
-      </c>
-      <c r="O16" s="22">
-        <v>6880.29</v>
+        <v>2608.80</v>
+      </c>
+      <c r="O16" s="20">
+        <v>9006.49</v>
       </c>
       <c r="P16" s="20">
-        <v>7369.30</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>9868.25</v>
+        <v>2091.40</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>9976.90</v>
       </c>
       <c r="R16" s="20">
-        <v>375.99</v>
-      </c>
-      <c r="S16" s="22">
-        <v>5427.21</v>
+        <v>582.61</v>
+      </c>
+      <c r="S16" s="20">
+        <v>6702.17</v>
       </c>
       <c r="T16" s="20">
-        <v>8080.06</v>
-      </c>
-      <c r="U16" s="22">
-        <v>6962.68</v>
+        <v>691.92</v>
+      </c>
+      <c r="U16" s="20">
+        <v>3338.13</v>
       </c>
       <c r="V16" s="20">
-        <v>1760.72</v>
-      </c>
-      <c r="W16" s="22">
-        <v>3374.93</v>
+        <v>7482.08</v>
+      </c>
+      <c r="W16" s="20">
+        <v>1500.64</v>
       </c>
       <c r="X16" s="20">
-        <v>2562.97</v>
-      </c>
-      <c r="Y16" s="22">
-        <v>4646.08</v>
+        <v>9672.00</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>9476.29</v>
       </c>
       <c r="Z16" s="20">
-        <v>9714.77</v>
-      </c>
-      <c r="AA16" s="22">
-        <v>1669.59</v>
+        <v>1726.68</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>4342.65</v>
       </c>
       <c r="AB16" s="20">
-        <v>1642.38</v>
-      </c>
-      <c r="AC16" s="22">
-        <v>7574.36</v>
+        <v>3776.15</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>567.95</v>
       </c>
       <c r="AD16" s="20">
-        <v>280.19</v>
-      </c>
-      <c r="AE16" s="22">
-        <v>5797.25</v>
+        <v>5121.43</v>
+      </c>
+      <c r="AE16" s="20">
+        <v>2913.00</v>
       </c>
       <c r="AF16" s="20">
-        <v>2641.72</v>
-      </c>
-      <c r="AG16" s="22">
-        <v>2337.26</v>
+        <v>4589.16</v>
+      </c>
+      <c r="AG16" s="20">
+        <v>4992.84</v>
       </c>
       <c r="AH16" s="20">
-        <v>9005.89</v>
-      </c>
-      <c r="AI16" s="22">
-        <v>6136.33</v>
+        <v>7440.49</v>
+      </c>
+      <c r="AI16" s="20">
+        <v>776.87</v>
       </c>
       <c r="AJ16" s="20">
-        <v>5875.75</v>
-      </c>
-      <c r="AK16" s="22">
-        <v>6205.33</v>
+        <v>1871.50</v>
+      </c>
+      <c r="AK16" s="20">
+        <v>1189.23</v>
       </c>
       <c r="AL16" s="20">
-        <v>2748.38</v>
-      </c>
-      <c r="AM16" s="22">
-        <v>1257.67</v>
+        <v>322.13</v>
+      </c>
+      <c r="AM16" s="20">
+        <v>2188.15</v>
       </c>
       <c r="AN16" s="20">
-        <v>3215.34</v>
-      </c>
-      <c r="AO16" s="22">
-        <v>9866.90</v>
+        <v>676.48</v>
+      </c>
+      <c r="AO16" s="20">
+        <v>4389.22</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="19" t="s"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="21">
-        <v>6808.71</v>
-      </c>
-      <c r="G17" s="20">
-        <v>7093.48</v>
-      </c>
-      <c r="H17" s="21">
-        <v>9014.15</v>
-      </c>
-      <c r="I17" s="20">
-        <v>2275.51</v>
-      </c>
-      <c r="J17" s="21">
-        <v>4417.57</v>
-      </c>
-      <c r="K17" s="20">
-        <v>9083.99</v>
-      </c>
-      <c r="L17" s="21">
-        <v>3336.99</v>
-      </c>
-      <c r="M17" s="20">
-        <v>2554.89</v>
-      </c>
-      <c r="N17" s="21">
-        <v>7728.03</v>
-      </c>
-      <c r="O17" s="20">
-        <v>2062.00</v>
-      </c>
-      <c r="P17" s="21">
-        <v>9438.76</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>8022.24</v>
-      </c>
-      <c r="R17" s="21">
-        <v>5766.12</v>
-      </c>
-      <c r="S17" s="20">
-        <v>6435.53</v>
-      </c>
-      <c r="T17" s="21">
-        <v>7312.01</v>
-      </c>
-      <c r="U17" s="20">
-        <v>8848.52</v>
-      </c>
-      <c r="V17" s="21">
-        <v>4068.65</v>
-      </c>
-      <c r="W17" s="20">
-        <v>625.97</v>
-      </c>
-      <c r="X17" s="21">
-        <v>9493.68</v>
-      </c>
-      <c r="Y17" s="20">
-        <v>1219.75</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>3018.08</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>8911.42</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>3302.52</v>
-      </c>
-      <c r="AC17" s="20">
-        <v>8032.57</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>9837.49</v>
-      </c>
-      <c r="AE17" s="20">
-        <v>4187.79</v>
-      </c>
-      <c r="AF17" s="21">
-        <v>8647.77</v>
-      </c>
-      <c r="AG17" s="20">
-        <v>7030.92</v>
-      </c>
-      <c r="AH17" s="21">
-        <v>7137.81</v>
-      </c>
-      <c r="AI17" s="20">
-        <v>7440.03</v>
-      </c>
-      <c r="AJ17" s="21">
-        <v>474.21</v>
-      </c>
-      <c r="AK17" s="20">
-        <v>6474.33</v>
-      </c>
-      <c r="AL17" s="21">
-        <v>8166.38</v>
-      </c>
-      <c r="AM17" s="20">
-        <v>597.87</v>
-      </c>
-      <c r="AN17" s="21">
-        <v>7912.50</v>
-      </c>
-      <c r="AO17" s="20">
-        <v>4776.84</v>
+      <c r="E17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3568.55</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3302.33</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3599.73</v>
+      </c>
+      <c r="I17" s="22">
+        <v>162.26</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1842.25</v>
+      </c>
+      <c r="K17" s="22">
+        <v>6305.30</v>
+      </c>
+      <c r="L17" s="20">
+        <v>630.11</v>
+      </c>
+      <c r="M17" s="22">
+        <v>3946.07</v>
+      </c>
+      <c r="N17" s="20">
+        <v>9936.19</v>
+      </c>
+      <c r="O17" s="22">
+        <v>3539.22</v>
+      </c>
+      <c r="P17" s="20">
+        <v>7284.73</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>1226.97</v>
+      </c>
+      <c r="R17" s="20">
+        <v>7506.07</v>
+      </c>
+      <c r="S17" s="22">
+        <v>9359.41</v>
+      </c>
+      <c r="T17" s="20">
+        <v>7447.13</v>
+      </c>
+      <c r="U17" s="22">
+        <v>2805.10</v>
+      </c>
+      <c r="V17" s="20">
+        <v>5362.95</v>
+      </c>
+      <c r="W17" s="22">
+        <v>881.98</v>
+      </c>
+      <c r="X17" s="20">
+        <v>4548.72</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>7757.75</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>6756.06</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>1743.74</v>
+      </c>
+      <c r="AB17" s="20">
+        <v>7281.55</v>
+      </c>
+      <c r="AC17" s="22">
+        <v>9562.23</v>
+      </c>
+      <c r="AD17" s="20">
+        <v>3623.06</v>
+      </c>
+      <c r="AE17" s="22">
+        <v>2088.27</v>
+      </c>
+      <c r="AF17" s="20">
+        <v>1869.43</v>
+      </c>
+      <c r="AG17" s="22">
+        <v>1395.71</v>
+      </c>
+      <c r="AH17" s="20">
+        <v>4740.31</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>1720.67</v>
+      </c>
+      <c r="AJ17" s="20">
+        <v>1186.25</v>
+      </c>
+      <c r="AK17" s="22">
+        <v>5435.35</v>
+      </c>
+      <c r="AL17" s="20">
+        <v>9072.75</v>
+      </c>
+      <c r="AM17" s="22">
+        <v>2831.31</v>
+      </c>
+      <c r="AN17" s="20">
+        <v>7803.80</v>
+      </c>
+      <c r="AO17" s="22">
+        <v>1157.39</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="19" t="s"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>15</v>
+      <c r="E18" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="20">
-        <v>6303.24</v>
+        <v>4054.89</v>
       </c>
       <c r="G18" s="20">
-        <v>3980.28</v>
+        <v>4900.07</v>
       </c>
       <c r="H18" s="20">
-        <v>5733.10</v>
+        <v>9773.40</v>
       </c>
       <c r="I18" s="20">
-        <v>8565.95</v>
+        <v>462.17</v>
       </c>
       <c r="J18" s="20">
-        <v>8921.16</v>
+        <v>1190.37</v>
       </c>
       <c r="K18" s="20">
-        <v>9733.41</v>
+        <v>7994.69</v>
       </c>
       <c r="L18" s="20">
-        <v>2803.67</v>
+        <v>4648.00</v>
       </c>
       <c r="M18" s="20">
-        <v>8566.60</v>
+        <v>2488.53</v>
       </c>
       <c r="N18" s="20">
-        <v>9609.60</v>
+        <v>1756.37</v>
       </c>
       <c r="O18" s="20">
-        <v>4032.27</v>
+        <v>5937.77</v>
       </c>
       <c r="P18" s="20">
-        <v>4014.26</v>
+        <v>5260.20</v>
       </c>
       <c r="Q18" s="20">
-        <v>143.91</v>
+        <v>1716.97</v>
       </c>
       <c r="R18" s="20">
-        <v>2665.54</v>
+        <v>5501.97</v>
       </c>
       <c r="S18" s="20">
-        <v>8377.10</v>
+        <v>9386.11</v>
       </c>
       <c r="T18" s="20">
-        <v>8166.00</v>
+        <v>9954.98</v>
       </c>
       <c r="U18" s="20">
-        <v>7809.29</v>
+        <v>8214.51</v>
       </c>
       <c r="V18" s="20">
-        <v>3214.40</v>
+        <v>3147.76</v>
       </c>
       <c r="W18" s="20">
-        <v>4978.47</v>
+        <v>2569.63</v>
       </c>
       <c r="X18" s="20">
-        <v>9027.67</v>
+        <v>5864.76</v>
       </c>
       <c r="Y18" s="20">
-        <v>2111.56</v>
+        <v>8267.85</v>
       </c>
       <c r="Z18" s="20">
-        <v>4645.23</v>
+        <v>53.51</v>
       </c>
       <c r="AA18" s="20">
-        <v>5682.19</v>
+        <v>2866.49</v>
       </c>
       <c r="AB18" s="20">
-        <v>3899.07</v>
+        <v>5224.53</v>
       </c>
       <c r="AC18" s="20">
-        <v>2041.85</v>
+        <v>6260.55</v>
       </c>
       <c r="AD18" s="20">
-        <v>5658.08</v>
+        <v>2354.91</v>
       </c>
       <c r="AE18" s="20">
-        <v>2199.83</v>
+        <v>3581.15</v>
       </c>
       <c r="AF18" s="20">
-        <v>7896.41</v>
+        <v>9169.99</v>
       </c>
       <c r="AG18" s="20">
-        <v>1029.23</v>
+        <v>6054.52</v>
       </c>
       <c r="AH18" s="20">
-        <v>7871.80</v>
+        <v>6369.44</v>
       </c>
       <c r="AI18" s="20">
-        <v>4738.18</v>
+        <v>7574.85</v>
       </c>
       <c r="AJ18" s="20">
-        <v>8537.20</v>
+        <v>8647.90</v>
       </c>
       <c r="AK18" s="20">
-        <v>6022.86</v>
+        <v>1554.11</v>
       </c>
       <c r="AL18" s="20">
-        <v>4588.22</v>
+        <v>7022.72</v>
       </c>
       <c r="AM18" s="20">
-        <v>3699.28</v>
+        <v>4951.27</v>
       </c>
       <c r="AN18" s="20">
-        <v>3488.18</v>
+        <v>7240.15</v>
       </c>
       <c r="AO18" s="20">
-        <v>6833.91</v>
+        <v>4176.69</v>
       </c>
     </row>
     <row r="19">
@@ -2219,466 +2210,472 @@
         <v>17</v>
       </c>
       <c r="F19" s="20">
-        <v>9087.93</v>
+        <v>5682.72</v>
       </c>
       <c r="G19" s="22">
-        <v>4231.00</v>
+        <v>1232.91</v>
       </c>
       <c r="H19" s="20">
-        <v>1512.23</v>
+        <v>3603.21</v>
       </c>
       <c r="I19" s="22">
-        <v>8127.09</v>
+        <v>5295.43</v>
       </c>
       <c r="J19" s="20">
-        <v>8025.71</v>
+        <v>1375.79</v>
       </c>
       <c r="K19" s="22">
-        <v>5665.87</v>
+        <v>5841.94</v>
       </c>
       <c r="L19" s="20">
-        <v>8379.63</v>
+        <v>1662.02</v>
       </c>
       <c r="M19" s="22">
-        <v>5835.68</v>
+        <v>2918.10</v>
       </c>
       <c r="N19" s="20">
-        <v>419.96</v>
+        <v>7737.42</v>
       </c>
       <c r="O19" s="22">
-        <v>1074.16</v>
+        <v>8276.64</v>
       </c>
       <c r="P19" s="20">
-        <v>2883.71</v>
+        <v>5736.40</v>
       </c>
       <c r="Q19" s="22">
-        <v>6952.47</v>
+        <v>401.33</v>
       </c>
       <c r="R19" s="20">
-        <v>7980.84</v>
+        <v>4512.51</v>
       </c>
       <c r="S19" s="22">
-        <v>5235.94</v>
+        <v>415.39</v>
       </c>
       <c r="T19" s="20">
-        <v>8163.63</v>
+        <v>6083.35</v>
       </c>
       <c r="U19" s="22">
-        <v>7895.75</v>
+        <v>2595.59</v>
       </c>
       <c r="V19" s="20">
-        <v>5743.42</v>
+        <v>4770.26</v>
       </c>
       <c r="W19" s="22">
-        <v>2112.88</v>
+        <v>4867.49</v>
       </c>
       <c r="X19" s="20">
-        <v>1320.05</v>
+        <v>3182.67</v>
       </c>
       <c r="Y19" s="22">
-        <v>5215.01</v>
+        <v>2933.74</v>
       </c>
       <c r="Z19" s="20">
-        <v>3155.80</v>
+        <v>2837.76</v>
       </c>
       <c r="AA19" s="22">
-        <v>8740.51</v>
+        <v>9761.54</v>
       </c>
       <c r="AB19" s="20">
-        <v>4657.81</v>
+        <v>1073.21</v>
       </c>
       <c r="AC19" s="22">
-        <v>8122.43</v>
+        <v>1575.35</v>
       </c>
       <c r="AD19" s="20">
-        <v>2359.43</v>
+        <v>6662.51</v>
       </c>
       <c r="AE19" s="22">
-        <v>9825.71</v>
+        <v>2927.37</v>
       </c>
       <c r="AF19" s="20">
-        <v>5059.12</v>
+        <v>907.38</v>
       </c>
       <c r="AG19" s="22">
-        <v>3379.51</v>
+        <v>5191.03</v>
       </c>
       <c r="AH19" s="20">
-        <v>4656.17</v>
+        <v>8271.52</v>
       </c>
       <c r="AI19" s="22">
-        <v>192.88</v>
+        <v>8194.59</v>
       </c>
       <c r="AJ19" s="20">
-        <v>9411.11</v>
+        <v>9466.31</v>
       </c>
       <c r="AK19" s="22">
-        <v>9294.16</v>
+        <v>8021.80</v>
       </c>
       <c r="AL19" s="20">
-        <v>8436.29</v>
+        <v>6342.07</v>
       </c>
       <c r="AM19" s="22">
-        <v>424.23</v>
+        <v>4334.31</v>
       </c>
       <c r="AN19" s="20">
-        <v>4344.43</v>
+        <v>448.43</v>
       </c>
       <c r="AO19" s="22">
-        <v>2617.06</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="19" t="s"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="21">
-        <v>2014.37</v>
-      </c>
-      <c r="G20" s="20">
-        <v>611.74</v>
-      </c>
-      <c r="H20" s="21">
-        <v>3201.73</v>
-      </c>
-      <c r="I20" s="20">
-        <v>5882.49</v>
-      </c>
-      <c r="J20" s="21">
-        <v>431.07</v>
-      </c>
-      <c r="K20" s="20">
-        <v>7122.45</v>
-      </c>
-      <c r="L20" s="21">
-        <v>7118.37</v>
-      </c>
-      <c r="M20" s="20">
-        <v>1194.79</v>
-      </c>
-      <c r="N20" s="21">
-        <v>6664.31</v>
-      </c>
-      <c r="O20" s="20">
-        <v>9827.80</v>
-      </c>
-      <c r="P20" s="21">
-        <v>4826.13</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>8514.93</v>
-      </c>
-      <c r="R20" s="21">
-        <v>1924.09</v>
-      </c>
-      <c r="S20" s="20">
-        <v>4742.32</v>
-      </c>
-      <c r="T20" s="21">
-        <v>1303.99</v>
-      </c>
-      <c r="U20" s="20">
-        <v>2147.07</v>
-      </c>
-      <c r="V20" s="21">
-        <v>2423.58</v>
-      </c>
-      <c r="W20" s="20">
-        <v>4160.37</v>
-      </c>
-      <c r="X20" s="21">
-        <v>1517.99</v>
-      </c>
-      <c r="Y20" s="20">
-        <v>8887.70</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>916.49</v>
-      </c>
-      <c r="AA20" s="20">
-        <v>2782.72</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>4902.84</v>
-      </c>
-      <c r="AC20" s="20">
-        <v>1382.85</v>
-      </c>
-      <c r="AD20" s="21">
-        <v>9509.62</v>
-      </c>
-      <c r="AE20" s="20">
-        <v>5384.52</v>
-      </c>
-      <c r="AF20" s="21">
-        <v>1446.84</v>
-      </c>
-      <c r="AG20" s="20">
-        <v>1727.52</v>
-      </c>
-      <c r="AH20" s="21">
-        <v>155.42</v>
-      </c>
-      <c r="AI20" s="20">
-        <v>617.52</v>
-      </c>
-      <c r="AJ20" s="21">
-        <v>3701.44</v>
-      </c>
-      <c r="AK20" s="20">
-        <v>3360.57</v>
-      </c>
-      <c r="AL20" s="21">
-        <v>7231.84</v>
-      </c>
-      <c r="AM20" s="20">
-        <v>3390.98</v>
-      </c>
-      <c r="AN20" s="21">
-        <v>8720.68</v>
-      </c>
-      <c r="AO20" s="20">
-        <v>7899.52</v>
+      <c r="E20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="20">
+        <v>7199.41</v>
+      </c>
+      <c r="G20" s="22">
+        <v>3725.63</v>
+      </c>
+      <c r="H20" s="20">
+        <v>2017.20</v>
+      </c>
+      <c r="I20" s="22">
+        <v>5895.04</v>
+      </c>
+      <c r="J20" s="20">
+        <v>281.27</v>
+      </c>
+      <c r="K20" s="22">
+        <v>7793.08</v>
+      </c>
+      <c r="L20" s="20">
+        <v>750.40</v>
+      </c>
+      <c r="M20" s="22">
+        <v>8396.51</v>
+      </c>
+      <c r="N20" s="20">
+        <v>4086.50</v>
+      </c>
+      <c r="O20" s="22">
+        <v>6612.37</v>
+      </c>
+      <c r="P20" s="20">
+        <v>4810.36</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>2684.18</v>
+      </c>
+      <c r="R20" s="20">
+        <v>6422.72</v>
+      </c>
+      <c r="S20" s="22">
+        <v>4585.47</v>
+      </c>
+      <c r="T20" s="20">
+        <v>2752.43</v>
+      </c>
+      <c r="U20" s="22">
+        <v>9842.42</v>
+      </c>
+      <c r="V20" s="20">
+        <v>2548.13</v>
+      </c>
+      <c r="W20" s="22">
+        <v>5806.32</v>
+      </c>
+      <c r="X20" s="20">
+        <v>540.05</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>8843.19</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>3936.17</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>9340.81</v>
+      </c>
+      <c r="AB20" s="20">
+        <v>8475.94</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>8276.60</v>
+      </c>
+      <c r="AD20" s="20">
+        <v>8604.49</v>
+      </c>
+      <c r="AE20" s="22">
+        <v>7342.28</v>
+      </c>
+      <c r="AF20" s="20">
+        <v>4220.87</v>
+      </c>
+      <c r="AG20" s="22">
+        <v>3402.24</v>
+      </c>
+      <c r="AH20" s="20">
+        <v>312.43</v>
+      </c>
+      <c r="AI20" s="22">
+        <v>1171.83</v>
+      </c>
+      <c r="AJ20" s="20">
+        <v>806.29</v>
+      </c>
+      <c r="AK20" s="22">
+        <v>9468.54</v>
+      </c>
+      <c r="AL20" s="20">
+        <v>6957.11</v>
+      </c>
+      <c r="AM20" s="22">
+        <v>7117.79</v>
+      </c>
+      <c r="AN20" s="20">
+        <v>5176.61</v>
+      </c>
+      <c r="AO20" s="22">
+        <v>4393.00</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="19" t="s"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>15</v>
+      <c r="E21" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="20">
-        <v>2122.14</v>
+        <v>4338.14</v>
       </c>
       <c r="G21" s="20">
-        <v>53.37</v>
+        <v>6547.70</v>
       </c>
       <c r="H21" s="20">
-        <v>5759.50</v>
+        <v>8413.18</v>
       </c>
       <c r="I21" s="20">
-        <v>7837.98</v>
+        <v>4797.80</v>
       </c>
       <c r="J21" s="20">
-        <v>7755.72</v>
+        <v>2317.66</v>
       </c>
       <c r="K21" s="20">
-        <v>4166.42</v>
+        <v>8437.43</v>
       </c>
       <c r="L21" s="20">
-        <v>4801.31</v>
+        <v>5996.69</v>
       </c>
       <c r="M21" s="20">
-        <v>8602.50</v>
+        <v>5510.08</v>
       </c>
       <c r="N21" s="20">
-        <v>7292.18</v>
+        <v>7032.77</v>
       </c>
       <c r="O21" s="20">
-        <v>4898.37</v>
+        <v>1426.95</v>
       </c>
       <c r="P21" s="20">
-        <v>9124.36</v>
+        <v>1875.96</v>
       </c>
       <c r="Q21" s="20">
-        <v>5136.02</v>
+        <v>2580.68</v>
       </c>
       <c r="R21" s="20">
-        <v>1106.33</v>
+        <v>7209.25</v>
       </c>
       <c r="S21" s="20">
-        <v>2952.70</v>
+        <v>4296.46</v>
       </c>
       <c r="T21" s="20">
-        <v>1315.10</v>
+        <v>4997.19</v>
       </c>
       <c r="U21" s="20">
-        <v>5488.41</v>
+        <v>7401.18</v>
       </c>
       <c r="V21" s="20">
-        <v>7914.61</v>
+        <v>8729.14</v>
       </c>
       <c r="W21" s="20">
-        <v>3224.15</v>
+        <v>7335.83</v>
       </c>
       <c r="X21" s="20">
-        <v>3735.09</v>
+        <v>5531.14</v>
       </c>
       <c r="Y21" s="20">
-        <v>9630.88</v>
+        <v>4865.73</v>
       </c>
       <c r="Z21" s="20">
-        <v>2166.73</v>
+        <v>7971.58</v>
       </c>
       <c r="AA21" s="20">
-        <v>8795.43</v>
+        <v>4538.52</v>
       </c>
       <c r="AB21" s="20">
-        <v>2667.92</v>
+        <v>7031.38</v>
       </c>
       <c r="AC21" s="20">
-        <v>8536.83</v>
+        <v>8165.94</v>
       </c>
       <c r="AD21" s="20">
-        <v>2945.30</v>
+        <v>5014.85</v>
       </c>
       <c r="AE21" s="20">
-        <v>9910.31</v>
+        <v>5562.83</v>
       </c>
       <c r="AF21" s="20">
-        <v>3553.95</v>
+        <v>7040.22</v>
       </c>
       <c r="AG21" s="20">
-        <v>1462.00</v>
+        <v>1383.12</v>
       </c>
       <c r="AH21" s="20">
-        <v>3576.69</v>
+        <v>1240.99</v>
       </c>
       <c r="AI21" s="20">
-        <v>9710.86</v>
+        <v>8466.23</v>
       </c>
       <c r="AJ21" s="20">
-        <v>9603.08</v>
+        <v>4119.69</v>
       </c>
       <c r="AK21" s="20">
-        <v>7784.93</v>
+        <v>3821.49</v>
       </c>
       <c r="AL21" s="20">
-        <v>3736.62</v>
+        <v>6342.87</v>
       </c>
       <c r="AM21" s="20">
-        <v>7604.15</v>
+        <v>7115.31</v>
       </c>
       <c r="AN21" s="20">
-        <v>3725.07</v>
+        <v>1190.06</v>
       </c>
       <c r="AO21" s="20">
-        <v>3461.01</v>
+        <v>3539.52</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="19" t="s"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
+      <c r="E22" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F22" s="20">
-        <v>4714.49</v>
-      </c>
-      <c r="G22" s="22">
-        <v>5449.97</v>
+        <v>2368.86</v>
+      </c>
+      <c r="G22" s="20">
+        <v>60.52</v>
       </c>
       <c r="H22" s="20">
-        <v>9105.95</v>
-      </c>
-      <c r="I22" s="22">
-        <v>5714.68</v>
+        <v>3428.81</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1465.86</v>
       </c>
       <c r="J22" s="20">
-        <v>5705.78</v>
-      </c>
-      <c r="K22" s="22">
-        <v>937.92</v>
+        <v>7838.65</v>
+      </c>
+      <c r="K22" s="20">
+        <v>4864.46</v>
       </c>
       <c r="L22" s="20">
-        <v>3405.41</v>
-      </c>
-      <c r="M22" s="22">
-        <v>2980.78</v>
+        <v>999.68</v>
+      </c>
+      <c r="M22" s="20">
+        <v>3918.93</v>
       </c>
       <c r="N22" s="20">
-        <v>1909.96</v>
-      </c>
-      <c r="O22" s="22">
-        <v>750.74</v>
+        <v>93.52</v>
+      </c>
+      <c r="O22" s="20">
+        <v>4285.20</v>
       </c>
       <c r="P22" s="20">
-        <v>6097.93</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>4053.91</v>
+        <v>3438.55</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>6544.37</v>
       </c>
       <c r="R22" s="20">
-        <v>4674.22</v>
-      </c>
-      <c r="S22" s="22">
-        <v>4199.22</v>
+        <v>2733.50</v>
+      </c>
+      <c r="S22" s="20">
+        <v>474.62</v>
       </c>
       <c r="T22" s="20">
-        <v>9413.77</v>
-      </c>
-      <c r="U22" s="22">
-        <v>7232.98</v>
+        <v>5134.76</v>
+      </c>
+      <c r="U22" s="20">
+        <v>6783.55</v>
       </c>
       <c r="V22" s="20">
-        <v>6344.44</v>
-      </c>
-      <c r="W22" s="22">
-        <v>7853.69</v>
+        <v>1334.28</v>
+      </c>
+      <c r="W22" s="20">
+        <v>5908.11</v>
       </c>
       <c r="X22" s="20">
-        <v>8858.94</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>1758.70</v>
+        <v>987.94</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>7368.63</v>
       </c>
       <c r="Z22" s="20">
-        <v>2044.37</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>5390.26</v>
+        <v>6027.33</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>4833.66</v>
       </c>
       <c r="AB22" s="20">
-        <v>3293.96</v>
-      </c>
-      <c r="AC22" s="22">
-        <v>4069.19</v>
+        <v>3593.51</v>
+      </c>
+      <c r="AC22" s="20">
+        <v>7277.87</v>
       </c>
       <c r="AD22" s="20">
-        <v>593.85</v>
-      </c>
-      <c r="AE22" s="22">
-        <v>2094.91</v>
+        <v>2937.21</v>
+      </c>
+      <c r="AE22" s="20">
+        <v>3415.65</v>
       </c>
       <c r="AF22" s="20">
-        <v>1711.47</v>
-      </c>
-      <c r="AG22" s="22">
-        <v>1712.22</v>
+        <v>5136.33</v>
+      </c>
+      <c r="AG22" s="20">
+        <v>5769.08</v>
       </c>
       <c r="AH22" s="20">
-        <v>8342.37</v>
-      </c>
-      <c r="AI22" s="22">
-        <v>9992.80</v>
+        <v>7453.89</v>
+      </c>
+      <c r="AI22" s="20">
+        <v>8371.68</v>
       </c>
       <c r="AJ22" s="20">
-        <v>489.08</v>
-      </c>
-      <c r="AK22" s="22">
-        <v>8019.08</v>
+        <v>2052.39</v>
+      </c>
+      <c r="AK22" s="20">
+        <v>8116.70</v>
       </c>
       <c r="AL22" s="20">
-        <v>1458.77</v>
-      </c>
-      <c r="AM22" s="22">
-        <v>5412.23</v>
+        <v>9072.83</v>
+      </c>
+      <c r="AM22" s="20">
+        <v>4490.40</v>
       </c>
       <c r="AN22" s="20">
-        <v>7816.70</v>
-      </c>
-      <c r="AO22" s="22">
-        <v>2010.55</v>
+        <v>6743.33</v>
+      </c>
+      <c r="AO22" s="20">
+        <v>2108.02</v>
       </c>
     </row>
     <row r="23">
@@ -2690,112 +2687,112 @@
       <c r="D23" s="17" t="s"/>
       <c r="E23" s="17" t="s"/>
       <c r="F23" s="21">
-        <v>82266.63</v>
+        <v>51806.07</v>
       </c>
       <c r="G23" s="21">
-        <v>78432.19</v>
+        <v>63407.63</v>
       </c>
       <c r="H23" s="21">
-        <v>71577.39</v>
+        <v>87568.98</v>
       </c>
       <c r="I23" s="21">
-        <v>84226.19</v>
+        <v>71536.49</v>
       </c>
       <c r="J23" s="21">
-        <v>82321.32</v>
+        <v>54666.70</v>
       </c>
       <c r="K23" s="21">
-        <v>81839.75</v>
+        <v>83542.53</v>
       </c>
       <c r="L23" s="21">
-        <v>85222.97</v>
+        <v>68065.83</v>
       </c>
       <c r="M23" s="21">
-        <v>84131.02</v>
+        <v>65488.14</v>
       </c>
       <c r="N23" s="21">
-        <v>80726.74</v>
+        <v>76573.96</v>
       </c>
       <c r="O23" s="21">
-        <v>78331.53</v>
+        <v>80075.31</v>
       </c>
       <c r="P23" s="21">
-        <v>91084.68</v>
+        <v>54657.16</v>
       </c>
       <c r="Q23" s="21">
-        <v>69331.81</v>
+        <v>62847.58</v>
       </c>
       <c r="R23" s="21">
-        <v>59423.97</v>
+        <v>82347.52</v>
       </c>
       <c r="S23" s="21">
-        <v>85995.01</v>
+        <v>75384.37</v>
       </c>
       <c r="T23" s="21">
-        <v>86481.81</v>
+        <v>63348.58</v>
       </c>
       <c r="U23" s="21">
-        <v>94879.81</v>
+        <v>69744.03</v>
       </c>
       <c r="V23" s="21">
-        <v>65211.38</v>
+        <v>64365.87</v>
       </c>
       <c r="W23" s="21">
-        <v>65535.50</v>
+        <v>53180.94</v>
       </c>
       <c r="X23" s="21">
-        <v>70527.44</v>
+        <v>87678.55</v>
       </c>
       <c r="Y23" s="21">
-        <v>82672.08</v>
+        <v>88704.88</v>
       </c>
       <c r="Z23" s="21">
-        <v>74008.05</v>
+        <v>74027.02</v>
       </c>
       <c r="AA23" s="21">
-        <v>82429.98</v>
+        <v>86170.52</v>
       </c>
       <c r="AB23" s="21">
-        <v>65979.46</v>
+        <v>78087.51</v>
       </c>
       <c r="AC23" s="21">
-        <v>94478.92</v>
+        <v>77242.83</v>
       </c>
       <c r="AD23" s="21">
-        <v>77991.32</v>
+        <v>63383.77</v>
       </c>
       <c r="AE23" s="21">
-        <v>78898.22</v>
+        <v>64998.74</v>
       </c>
       <c r="AF23" s="21">
-        <v>64726.43</v>
+        <v>56890.21</v>
       </c>
       <c r="AG23" s="21">
-        <v>58288.53</v>
+        <v>57870.80</v>
       </c>
       <c r="AH23" s="21">
-        <v>91424.75</v>
+        <v>62977.06</v>
       </c>
       <c r="AI23" s="21">
-        <v>81818.17</v>
+        <v>75241.46</v>
       </c>
       <c r="AJ23" s="21">
-        <v>84937.93</v>
+        <v>70375.28</v>
       </c>
       <c r="AK23" s="21">
-        <v>91029.63</v>
+        <v>73116.65</v>
       </c>
       <c r="AL23" s="21">
-        <v>73903.63</v>
+        <v>90891.85</v>
       </c>
       <c r="AM23" s="21">
-        <v>62942.92</v>
+        <v>61992.82</v>
       </c>
       <c r="AN23" s="21">
-        <v>92134.50</v>
+        <v>65510.14</v>
       </c>
       <c r="AO23" s="21">
-        <v>79462.80</v>
+        <v>37506.53</v>
       </c>
     </row>
   </sheetData>
